--- a/Nellore mapping.xlsx
+++ b/Nellore mapping.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo thinkpad\Documents\UiPath\Voltas_auto_non_standard_expenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charan\Documents\UiPath\Voltas_auto_non_standard_expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3508,6 +3508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
